--- a/data/trans_orig/P1435-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Provincia-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>10431</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5145</v>
+        <v>5240</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18677</v>
+        <v>19115</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03999173463999709</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01972500885815303</v>
+        <v>0.0200878334431952</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07160458238480082</v>
+        <v>0.07328392695178024</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>250407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>242161</v>
+        <v>241723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>255693</v>
+        <v>255598</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9600082653600029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9283954176151993</v>
+        <v>0.9267160730482202</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.980274991141847</v>
+        <v>0.9799121665568048</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>85699</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71155</v>
+        <v>70274</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103598</v>
+        <v>103048</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1700554096355121</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1411949028262261</v>
+        <v>0.1394456582911629</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.205572577410003</v>
+        <v>0.204481956763413</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>418250</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>400351</v>
+        <v>400901</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>432794</v>
+        <v>433675</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8299445903644879</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7944274225899971</v>
+        <v>0.7955180432365869</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8588050971737745</v>
+        <v>0.8605543417088372</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>15885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9118</v>
+        <v>9584</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24670</v>
+        <v>25346</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0473597401231321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02718589688625845</v>
+        <v>0.02857518561901235</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07355083535057431</v>
+        <v>0.0755659984934562</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>319527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310742</v>
+        <v>310066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>326294</v>
+        <v>325828</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9526402598768678</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9264491646494258</v>
+        <v>0.9244340015065438</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9728141031137417</v>
+        <v>0.9714248143809876</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>26499</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18356</v>
+        <v>18687</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38600</v>
+        <v>39279</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07133749151535052</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04941699454182211</v>
+        <v>0.05030773529518519</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1039167369437613</v>
+        <v>0.1057422864691972</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>344957</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>332856</v>
+        <v>332177</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>353100</v>
+        <v>352769</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9286625084846495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8960832630562386</v>
+        <v>0.8942577135308026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9505830054581779</v>
+        <v>0.9496922647048148</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>5512</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11349</v>
+        <v>12608</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02654432151208839</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009233807927291136</v>
+        <v>0.009218865009113996</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05464777997814999</v>
+        <v>0.06071467726338439</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>202156</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196319</v>
+        <v>195060</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205750</v>
+        <v>205754</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9734556784879116</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9453522200218493</v>
+        <v>0.9392853227366156</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9907661920727089</v>
+        <v>0.9907811349908859</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>23865</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16067</v>
+        <v>15936</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34941</v>
+        <v>34046</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08580232558604181</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05776606114944641</v>
+        <v>0.05729455089802056</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1256208415578758</v>
+        <v>0.1224040793817992</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>254279</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>243203</v>
+        <v>244098</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262077</v>
+        <v>262208</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9141976744139582</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8743791584421241</v>
+        <v>0.8775959206182008</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9422339388505535</v>
+        <v>0.9427054491019794</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>30213</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20910</v>
+        <v>21158</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42789</v>
+        <v>41998</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04733881548040268</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03276360769769028</v>
+        <v>0.03315231902435128</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06704494554887287</v>
+        <v>0.06580553411395103</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>608006</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>595430</v>
+        <v>596221</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>617309</v>
+        <v>617061</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9526611845195974</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9329550544511273</v>
+        <v>0.9341944658860497</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9672363923023101</v>
+        <v>0.9668476809756494</v>
       </c>
     </row>
     <row r="24">
@@ -1261,19 +1261,19 @@
         <v>62041</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49512</v>
+        <v>48165</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81023</v>
+        <v>78190</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07918380863369696</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06319300569855735</v>
+        <v>0.06147380962396965</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1034104190049664</v>
+        <v>0.09979442735128306</v>
       </c>
     </row>
     <row r="26">
@@ -1290,19 +1290,19 @@
         <v>721470</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>702488</v>
+        <v>705321</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>733999</v>
+        <v>735346</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.920816191366303</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8965895809950339</v>
+        <v>0.9002055726487173</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.936806994301443</v>
+        <v>0.9385261903760304</v>
       </c>
     </row>
     <row r="27">
@@ -1352,19 +1352,19 @@
         <v>260146</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>228586</v>
+        <v>230740</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>290272</v>
+        <v>293342</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07698458953858449</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06764500949734679</v>
+        <v>0.06828254962595506</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08589958562016063</v>
+        <v>0.08680813227985446</v>
       </c>
     </row>
     <row r="29">
@@ -1381,19 +1381,19 @@
         <v>3119051</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3088925</v>
+        <v>3085855</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3150611</v>
+        <v>3148457</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9230154104614156</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9141004143798394</v>
+        <v>0.9131918677201458</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9323549905026531</v>
+        <v>0.931717450374045</v>
       </c>
     </row>
     <row r="30">
@@ -1565,19 +1565,19 @@
         <v>5745</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1910</v>
+        <v>1922</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13016</v>
+        <v>12602</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01999924111953397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00664841555032517</v>
+        <v>0.006690505513000274</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04531457717042107</v>
+        <v>0.04387054251706794</v>
       </c>
     </row>
     <row r="5">
@@ -1594,19 +1594,19 @@
         <v>281500</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274229</v>
+        <v>274643</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>285335</v>
+        <v>285323</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.980000758880466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9546854228295791</v>
+        <v>0.9561294574829322</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9933515844496748</v>
+        <v>0.9933094944869998</v>
       </c>
     </row>
     <row r="6">
@@ -1656,19 +1656,19 @@
         <v>32006</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21786</v>
+        <v>22751</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45059</v>
+        <v>44522</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06110679960957586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04159532240500519</v>
+        <v>0.04343835474274854</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08602845942742122</v>
+        <v>0.08500362593660878</v>
       </c>
     </row>
     <row r="8">
@@ -1685,19 +1685,19 @@
         <v>491759</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>478706</v>
+        <v>479243</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501979</v>
+        <v>501014</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9388932003904241</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9139715405725789</v>
+        <v>0.9149963740633915</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9584046775949948</v>
+        <v>0.9565616452572515</v>
       </c>
     </row>
     <row r="9">
@@ -1747,19 +1747,19 @@
         <v>10102</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5055</v>
+        <v>4979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18557</v>
+        <v>17553</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02962355695965416</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01482255563787278</v>
+        <v>0.01459917147782918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05441703646059309</v>
+        <v>0.05147115049374779</v>
       </c>
     </row>
     <row r="11">
@@ -1776,19 +1776,19 @@
         <v>330918</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>322463</v>
+        <v>323467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>335965</v>
+        <v>336041</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9703764430403459</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9455829635394069</v>
+        <v>0.9485288495062525</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9851774443621273</v>
+        <v>0.9854008285221708</v>
       </c>
     </row>
     <row r="12">
@@ -1838,19 +1838,19 @@
         <v>13698</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6703</v>
+        <v>7694</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22328</v>
+        <v>23327</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03521756510683844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0172344668563578</v>
+        <v>0.01978069033663091</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05740528949191229</v>
+        <v>0.05997375726262882</v>
       </c>
     </row>
     <row r="14">
@@ -1867,19 +1867,19 @@
         <v>375253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>366623</v>
+        <v>365624</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>382248</v>
+        <v>381257</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9647824348931615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9425947105080874</v>
+        <v>0.9400262427373713</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.982765533143642</v>
+        <v>0.9802193096633691</v>
       </c>
     </row>
     <row r="15">
@@ -1929,19 +1929,19 @@
         <v>17388</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10603</v>
+        <v>9733</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27544</v>
+        <v>26518</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07918385801726006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04828413907921267</v>
+        <v>0.04432145571677189</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.125432782287823</v>
+        <v>0.1207629447799334</v>
       </c>
     </row>
     <row r="17">
@@ -1958,19 +1958,19 @@
         <v>202203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192047</v>
+        <v>193073</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208988</v>
+        <v>209858</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.92081614198274</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8745672177121769</v>
+        <v>0.8792370552200667</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9517158609207873</v>
+        <v>0.9556785442832281</v>
       </c>
     </row>
     <row r="18">
@@ -2020,19 +2020,19 @@
         <v>19219</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12182</v>
+        <v>12144</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29078</v>
+        <v>29385</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06910850686913184</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.043806306338932</v>
+        <v>0.04366748062354116</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1045604388940003</v>
+        <v>0.1056661520398125</v>
       </c>
     </row>
     <row r="20">
@@ -2049,19 +2049,19 @@
         <v>258877</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249018</v>
+        <v>248711</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265914</v>
+        <v>265952</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9308914931308682</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8954395611059996</v>
+        <v>0.8943338479601876</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9561936936610681</v>
+        <v>0.9563325193764592</v>
       </c>
     </row>
     <row r="21">
@@ -2111,19 +2111,19 @@
         <v>25726</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16786</v>
+        <v>17819</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37764</v>
+        <v>37794</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03707709215376189</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02419196398503523</v>
+        <v>0.02568192465173357</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05442682319514217</v>
+        <v>0.0544692520817353</v>
       </c>
     </row>
     <row r="23">
@@ -2140,19 +2140,19 @@
         <v>668127</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>656089</v>
+        <v>656059</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>677067</v>
+        <v>676034</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9629229078462381</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9455731768048579</v>
+        <v>0.9455307479182641</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9758080360149649</v>
+        <v>0.9743180753482662</v>
       </c>
     </row>
     <row r="24">
@@ -2202,19 +2202,19 @@
         <v>13526</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7266</v>
+        <v>7394</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23151</v>
+        <v>23011</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01644359027443753</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008832896133978408</v>
+        <v>0.008989303692385717</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02814448024979806</v>
+        <v>0.02797474613883632</v>
       </c>
     </row>
     <row r="26">
@@ -2231,19 +2231,19 @@
         <v>809052</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>799427</v>
+        <v>799567</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>815312</v>
+        <v>815184</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9835564097255625</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.971855519750202</v>
+        <v>0.9720252538611637</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9911671038660216</v>
+        <v>0.9910106963076143</v>
       </c>
     </row>
     <row r="27">
@@ -2293,19 +2293,19 @@
         <v>137409</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>117447</v>
+        <v>113818</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>162576</v>
+        <v>162079</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03865137588288885</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03303629951640324</v>
+        <v>0.03201556469607927</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04573050022860073</v>
+        <v>0.04559053293270065</v>
       </c>
     </row>
     <row r="29">
@@ -2322,19 +2322,19 @@
         <v>3417689</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3392522</v>
+        <v>3393019</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3437651</v>
+        <v>3441280</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9613486241171112</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9542694997713991</v>
+        <v>0.9544094670672991</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9669637004835966</v>
+        <v>0.9679844353039206</v>
       </c>
     </row>
     <row r="30">
@@ -2506,19 +2506,19 @@
         <v>6319</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2514</v>
+        <v>2633</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14361</v>
+        <v>12888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02188702208840324</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008707638420274378</v>
+        <v>0.009120299171651696</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04974251670575694</v>
+        <v>0.04464150706106815</v>
       </c>
     </row>
     <row r="5">
@@ -2535,19 +2535,19 @@
         <v>282384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274342</v>
+        <v>275815</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>286189</v>
+        <v>286070</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9781129779115968</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.950257483294243</v>
+        <v>0.9553584929389317</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9912923615797256</v>
+        <v>0.9908797008283483</v>
       </c>
     </row>
     <row r="6">
@@ -2597,19 +2597,19 @@
         <v>3927</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9713</v>
+        <v>9825</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007507029620807733</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001903970724286494</v>
+        <v>0.001886071624309987</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01856944088955837</v>
+        <v>0.01878230290775472</v>
       </c>
     </row>
     <row r="8">
@@ -2626,19 +2626,19 @@
         <v>519157</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>513371</v>
+        <v>513259</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>522088</v>
+        <v>522097</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9924929703791923</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9814305591104416</v>
+        <v>0.9812176970922453</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9980960292757135</v>
+        <v>0.99811392837569</v>
       </c>
     </row>
     <row r="9">
@@ -2688,19 +2688,19 @@
         <v>7343</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3631</v>
+        <v>3622</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13857</v>
+        <v>13648</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02183338960074833</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01079807229443241</v>
+        <v>0.01077016295574291</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04120417830044185</v>
+        <v>0.04058063602502161</v>
       </c>
     </row>
     <row r="11">
@@ -2717,19 +2717,19 @@
         <v>328966</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>322452</v>
+        <v>322661</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>332678</v>
+        <v>332687</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9781666103992517</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.958795821699558</v>
+        <v>0.959419363974979</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9892019277055675</v>
+        <v>0.9892298370442572</v>
       </c>
     </row>
     <row r="12">
@@ -2782,16 +2782,16 @@
         <v>1838</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10770</v>
+        <v>10429</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01213098744923662</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004745967601665461</v>
+        <v>0.004747085549636021</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02780874312418243</v>
+        <v>0.02692945977161186</v>
       </c>
     </row>
     <row r="14">
@@ -2808,7 +2808,7 @@
         <v>382585</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>376513</v>
+        <v>376854</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>385445</v>
@@ -2817,10 +2817,10 @@
         <v>0.9878690125507634</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9721912568758172</v>
+        <v>0.9730705402283881</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9952540323983345</v>
+        <v>0.995252914450364</v>
       </c>
     </row>
     <row r="15">
@@ -2870,19 +2870,19 @@
         <v>3874</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1100</v>
+        <v>945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9367</v>
+        <v>9638</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01772492628297515</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005031106625105948</v>
+        <v>0.004323184220620918</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04285024152518592</v>
+        <v>0.0440943974945615</v>
       </c>
     </row>
     <row r="17">
@@ -2899,19 +2899,19 @@
         <v>214713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>209220</v>
+        <v>208949</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>217487</v>
+        <v>217642</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9822750737170248</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9571497584748139</v>
+        <v>0.9559056025054378</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.994968893374894</v>
+        <v>0.9956768157793791</v>
       </c>
     </row>
     <row r="18">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4649</v>
+        <v>4653</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003371035499817777</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01702379726825213</v>
+        <v>0.01703631455281239</v>
       </c>
     </row>
     <row r="20">
@@ -2990,7 +2990,7 @@
         <v>272194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268466</v>
+        <v>268462</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273115</v>
@@ -2999,7 +2999,7 @@
         <v>0.9966289645001822</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9829762027317479</v>
+        <v>0.9829636854471876</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3052,19 +3052,19 @@
         <v>31300</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22379</v>
+        <v>22535</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44298</v>
+        <v>43735</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04527684879942254</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03237315071505609</v>
+        <v>0.03259805846059276</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06407949038571152</v>
+        <v>0.06326572760405884</v>
       </c>
     </row>
     <row r="23">
@@ -3081,19 +3081,19 @@
         <v>659994</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>646996</v>
+        <v>647559</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>668915</v>
+        <v>668759</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9547231512005775</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9359205096142885</v>
+        <v>0.9367342723959412</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9676268492849439</v>
+        <v>0.9674019415394073</v>
       </c>
     </row>
     <row r="24">
@@ -3143,19 +3143,19 @@
         <v>8007</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3934</v>
+        <v>3921</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14869</v>
+        <v>15109</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009691379170330144</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004761795247701981</v>
+        <v>0.004746274919497312</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01799702909793231</v>
+        <v>0.01828810110732917</v>
       </c>
     </row>
     <row r="26">
@@ -3172,19 +3172,19 @@
         <v>818160</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>811298</v>
+        <v>811058</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>822233</v>
+        <v>822246</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9903086208296699</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9820029709020675</v>
+        <v>0.981711898892671</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.995238204752298</v>
+        <v>0.9952537250805027</v>
       </c>
     </row>
     <row r="27">
@@ -3234,19 +3234,19 @@
         <v>66388</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>51188</v>
+        <v>52184</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>83920</v>
+        <v>83238</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0187296347330903</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01444121707289562</v>
+        <v>0.01472226793829834</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0236758387175055</v>
+        <v>0.02348346981164601</v>
       </c>
     </row>
     <row r="29">
@@ -3263,19 +3263,19 @@
         <v>3478154</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3460622</v>
+        <v>3461304</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3493354</v>
+        <v>3492358</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9812703652669097</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9763241612824946</v>
+        <v>0.976516530188354</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9855587829271044</v>
+        <v>0.9852777320617018</v>
       </c>
     </row>
     <row r="30">
@@ -3447,19 +3447,19 @@
         <v>1433</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3909</v>
+        <v>3756</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004532482763503369</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00133813041832104</v>
+        <v>0.001293473599670103</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01236722221153327</v>
+        <v>0.01188505253592308</v>
       </c>
     </row>
     <row r="5">
@@ -3476,19 +3476,19 @@
         <v>314628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>312152</v>
+        <v>312305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>315638</v>
+        <v>315652</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9954675172364966</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9876327777884668</v>
+        <v>0.9881149474640775</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9986618695816789</v>
+        <v>0.9987065264003299</v>
       </c>
     </row>
     <row r="6">
@@ -3538,19 +3538,19 @@
         <v>32684</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21643</v>
+        <v>21675</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45746</v>
+        <v>46685</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06033533642029789</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03995350868388088</v>
+        <v>0.04001143804567595</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08444768435838691</v>
+        <v>0.08617948251021927</v>
       </c>
     </row>
     <row r="8">
@@ -3567,19 +3567,19 @@
         <v>509030</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>495968</v>
+        <v>495029</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>520071</v>
+        <v>520039</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9396646635797021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.915552315641613</v>
+        <v>0.9138205174897805</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9600464913161191</v>
+        <v>0.9599885619543241</v>
       </c>
     </row>
     <row r="9">
@@ -3629,19 +3629,19 @@
         <v>10902</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5993</v>
+        <v>5828</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19271</v>
+        <v>18979</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03059084946677695</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01681640501359135</v>
+        <v>0.01635245853717814</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05407512332812822</v>
+        <v>0.05325592059247535</v>
       </c>
     </row>
     <row r="11">
@@ -3658,19 +3658,19 @@
         <v>345479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>337110</v>
+        <v>337402</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>350388</v>
+        <v>350553</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.969409150533223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9459248766718719</v>
+        <v>0.9467440794075247</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9831835949864087</v>
+        <v>0.9836475414628217</v>
       </c>
     </row>
     <row r="12">
@@ -3720,19 +3720,19 @@
         <v>17784</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10814</v>
+        <v>10700</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28967</v>
+        <v>29945</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04220889892797977</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02566595507868626</v>
+        <v>0.02539637822523318</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06875053947390353</v>
+        <v>0.0710737557386783</v>
       </c>
     </row>
     <row r="14">
@@ -3749,19 +3749,19 @@
         <v>403545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>392362</v>
+        <v>391384</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>410515</v>
+        <v>410629</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9577911010720203</v>
+        <v>0.9577911010720201</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9312494605260963</v>
+        <v>0.9289262442613225</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9743340449213137</v>
+        <v>0.974603621774767</v>
       </c>
     </row>
     <row r="15">
@@ -3811,19 +3811,19 @@
         <v>20292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14659</v>
+        <v>14046</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27681</v>
+        <v>27490</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08946177962708225</v>
+        <v>0.08946177962708224</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06462640861604184</v>
+        <v>0.0619263892027388</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.122036062802192</v>
+        <v>0.1211944430092266</v>
       </c>
     </row>
     <row r="17">
@@ -3840,19 +3840,19 @@
         <v>206531</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199142</v>
+        <v>199333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>212164</v>
+        <v>212777</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9105382203729178</v>
+        <v>0.9105382203729177</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.877963937197808</v>
+        <v>0.8788055569907735</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9353735913839583</v>
+        <v>0.9380736107972613</v>
       </c>
     </row>
     <row r="18">
@@ -3902,19 +3902,19 @@
         <v>11579</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6821</v>
+        <v>6467</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18622</v>
+        <v>18529</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04400897355167328</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02592718886653657</v>
+        <v>0.02458133765566124</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07078004316239576</v>
+        <v>0.0704275252343164</v>
       </c>
     </row>
     <row r="20">
@@ -3931,19 +3931,19 @@
         <v>251520</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>244477</v>
+        <v>244570</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>256278</v>
+        <v>256632</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9559910264483267</v>
+        <v>0.9559910264483268</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9292199568376048</v>
+        <v>0.9295724747656837</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9740728111334634</v>
+        <v>0.9754186623443387</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>117066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98121</v>
+        <v>96846</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137922</v>
+        <v>138438</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1525020119403307</v>
+        <v>0.1525020119403306</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1278222190367846</v>
+        <v>0.1261614634752119</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1796714368710383</v>
+        <v>0.1803439240086049</v>
       </c>
     </row>
     <row r="23">
@@ -4022,19 +4022,19 @@
         <v>650569</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>629713</v>
+        <v>629197</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>669514</v>
+        <v>670789</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8474979880596694</v>
+        <v>0.8474979880596692</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8203285631289619</v>
+        <v>0.8196560759913952</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8721777809632155</v>
+        <v>0.873838536524788</v>
       </c>
     </row>
     <row r="24">
@@ -4084,19 +4084,19 @@
         <v>17193</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10525</v>
+        <v>10749</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27440</v>
+        <v>26654</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02069967411042054</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01267128005648536</v>
+        <v>0.01294053434131387</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03303591855154677</v>
+        <v>0.03208957977541863</v>
       </c>
     </row>
     <row r="26">
@@ -4113,19 +4113,19 @@
         <v>813416</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>803169</v>
+        <v>803955</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>820084</v>
+        <v>819860</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9793003258895795</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9669640814484535</v>
+        <v>0.9679104202245815</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9873287199435148</v>
+        <v>0.9870594656586863</v>
       </c>
     </row>
     <row r="27">
@@ -4175,19 +4175,19 @@
         <v>228933</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>200026</v>
+        <v>199669</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>260858</v>
+        <v>260110</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06148073147974337</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05371776213085682</v>
+        <v>0.05362189258272029</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07005433430636625</v>
+        <v>0.06985351668594032</v>
       </c>
     </row>
     <row r="29">
@@ -4204,19 +4204,19 @@
         <v>3494719</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3462794</v>
+        <v>3463542</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3523626</v>
+        <v>3523983</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9385192685202566</v>
+        <v>0.9385192685202565</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9299456656936333</v>
+        <v>0.9301464833140596</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9462822378691428</v>
+        <v>0.9463781074172793</v>
       </c>
     </row>
     <row r="30">
